--- a/data-analysis/manual_analysis/failed_pins/sample_failed_pins_first_author.xlsx
+++ b/data-analysis/manual_analysis/failed_pins/sample_failed_pins_first_author.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenRombaut/Desktop/Queens/LOG6307/project/data-analysis/manual_analysis/failed_pins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFC1389-89EB-3E45-A275-F1C775DFB78F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8C6FB3-7A62-7C4B-A6F7-3B8E037BDE2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23840" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25380" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="380">
   <si>
     <t>id</t>
   </si>
@@ -1357,6 +1356,30 @@
   </si>
   <si>
     <t>I had this as build error - I didn't see where the missing dependency was. Config error or dependency error - after you review the other categories - figure out what this fits in.</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Same</t>
+  </si>
+  <si>
+    <t>Different</t>
+  </si>
+  <si>
+    <t>Granularity</t>
+  </si>
+  <si>
+    <t>Not Classified</t>
+  </si>
+  <si>
+    <t>Syntax/Linter/Project Guideline Error</t>
+  </si>
+  <si>
+    <t>Dependency Error</t>
+  </si>
+  <si>
+    <t>Missing File/Module</t>
   </si>
 </sst>
 </file>
@@ -1375,6 +1398,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1455,7 +1479,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1493,6 +1517,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1502,7 +1535,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1534,6 +1567,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1842,21 +1878,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
     <col min="2" max="4" width="22.33203125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="36.83203125" style="2"/>
+    <col min="5" max="8" width="36.83203125" style="2"/>
+    <col min="10" max="16384" width="36.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1881,17 +1918,20 @@
       <c r="H1" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>507946068</v>
       </c>
@@ -1916,14 +1956,17 @@
       <c r="H2" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="I2" t="s">
+        <v>375</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>372744162</v>
       </c>
@@ -1945,9 +1988,12 @@
       <c r="H3" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>373</v>
+      </c>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>408474508</v>
       </c>
@@ -1969,9 +2015,12 @@
       <c r="H4" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>373</v>
+      </c>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>427919710</v>
       </c>
@@ -1991,17 +2040,20 @@
         <v>297</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>377</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="I5" t="s">
+        <v>374</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>485678236</v>
       </c>
@@ -2023,9 +2075,12 @@
       <c r="H6" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>373</v>
+      </c>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>342947950</v>
       </c>
@@ -2047,11 +2102,14 @@
       <c r="H7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="I7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L7" s="11" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>469152005</v>
       </c>
@@ -2073,11 +2131,14 @@
       <c r="H8" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="I8" t="s">
+        <v>373</v>
+      </c>
+      <c r="L8" s="11" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="224" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="224" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>379357511</v>
       </c>
@@ -2099,11 +2160,14 @@
       <c r="H9" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="I9" t="s">
+        <v>373</v>
+      </c>
+      <c r="L9" s="11" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>267571574</v>
       </c>
@@ -2128,9 +2192,12 @@
       <c r="H10" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>373</v>
+      </c>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>366678584</v>
       </c>
@@ -2155,12 +2222,15 @@
       <c r="H11" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="I11" t="s">
+        <v>375</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>549105432</v>
       </c>
@@ -2182,11 +2252,14 @@
       <c r="H12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="I12" t="s">
+        <v>373</v>
+      </c>
+      <c r="L12" s="11" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="128" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>378021629</v>
       </c>
@@ -2208,11 +2281,14 @@
       <c r="H13" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="I13" t="s">
+        <v>373</v>
+      </c>
+      <c r="L13" s="11" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="272" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="272" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>584603217</v>
       </c>
@@ -2237,11 +2313,14 @@
       <c r="H14" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="I14" t="s">
+        <v>373</v>
+      </c>
+      <c r="L14" s="11" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>359677678</v>
       </c>
@@ -2266,12 +2345,15 @@
       <c r="H15" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" t="s">
+        <v>373</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11" ht="192" x14ac:dyDescent="0.2">
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:12" ht="192" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>250812143</v>
       </c>
@@ -2296,14 +2378,17 @@
       <c r="H16" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="I16" t="s">
+        <v>375</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="L16" s="11" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>358976644</v>
       </c>
@@ -2328,14 +2413,17 @@
       <c r="H17" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="I17" t="s">
+        <v>375</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="L17" s="11" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="208" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="208" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>288115747</v>
       </c>
@@ -2357,14 +2445,17 @@
       <c r="H18" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" t="s">
+        <v>373</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="L18" s="11" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="240" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="240" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>461092900</v>
       </c>
@@ -2390,16 +2481,19 @@
         <v>271</v>
       </c>
       <c r="I19" t="s">
+        <v>376</v>
+      </c>
+      <c r="J19" t="s">
         <v>282</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="L19" s="11" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>410285439</v>
       </c>
@@ -2424,14 +2518,17 @@
       <c r="H20" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" t="s">
+        <v>376</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="L20" s="11" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="144" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>588711433</v>
       </c>
@@ -2453,11 +2550,14 @@
       <c r="H21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="I21" t="s">
+        <v>373</v>
+      </c>
+      <c r="L21" s="11" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="176" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="176" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>542617567</v>
       </c>
@@ -2482,17 +2582,20 @@
       <c r="H22" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" t="s">
+        <v>375</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="L22" s="11" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>263090175</v>
       </c>
@@ -2517,14 +2620,17 @@
       <c r="H23" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" t="s">
+        <v>373</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="L23" s="11" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>238216367</v>
       </c>
@@ -2549,14 +2655,17 @@
       <c r="H24" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" t="s">
+        <v>373</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="L24" s="11" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="395" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="395" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>424159227</v>
       </c>
@@ -2581,14 +2690,17 @@
       <c r="H25" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="I25" t="s">
+        <v>375</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="L25" s="11" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="208" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="208" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>388419612</v>
       </c>
@@ -2613,14 +2725,17 @@
       <c r="H26" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="I26" t="s">
+        <v>373</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="L26" s="11" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>567894063</v>
       </c>
@@ -2642,17 +2757,20 @@
       <c r="H27" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" t="s">
+        <v>375</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="L27" s="11" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="224" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="224" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>413700499</v>
       </c>
@@ -2677,14 +2795,17 @@
       <c r="H28" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="I28" t="s">
+        <v>375</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="L28" s="11" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="240" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="240" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>283459189</v>
       </c>
@@ -2709,17 +2830,20 @@
       <c r="H29" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" t="s">
+        <v>375</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="L29" s="11" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>524123855</v>
       </c>
@@ -2741,14 +2865,17 @@
       <c r="H30" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" t="s">
+        <v>373</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="L30" s="11" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>389517278</v>
       </c>
@@ -2773,14 +2900,17 @@
       <c r="H31" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" t="s">
+        <v>373</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="L31" s="11" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>413112645</v>
       </c>
@@ -2805,14 +2935,17 @@
       <c r="H32" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" t="s">
+        <v>376</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="L32" s="11" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>272523012</v>
       </c>
@@ -2837,17 +2970,20 @@
       <c r="H33" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" t="s">
+        <v>375</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="K33" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="L33" s="11" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="160" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="160" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>538723928</v>
       </c>
@@ -2872,11 +3008,14 @@
       <c r="H34" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="I34" t="s">
+        <v>373</v>
+      </c>
+      <c r="L34" s="11" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>284334046</v>
       </c>
@@ -2898,11 +3037,14 @@
       <c r="H35" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="I35" t="s">
+        <v>373</v>
+      </c>
+      <c r="L35" s="11" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>440948099</v>
       </c>
@@ -2924,11 +3066,14 @@
       <c r="H36" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="I36" t="s">
+        <v>373</v>
+      </c>
+      <c r="L36" s="11" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>511042401</v>
       </c>
@@ -2950,11 +3095,14 @@
       <c r="H37" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="I37" t="s">
+        <v>373</v>
+      </c>
+      <c r="L37" s="11" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="144" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>387705348</v>
       </c>
@@ -2976,14 +3124,17 @@
       <c r="H38" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="I38" t="s">
+        <v>373</v>
+      </c>
+      <c r="K38" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="L38" s="11" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="160" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="160" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>438919039</v>
       </c>
@@ -3008,17 +3159,20 @@
       <c r="H39" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" t="s">
+        <v>375</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="L39" s="11" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="144" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="144" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>527177088</v>
       </c>
@@ -3043,17 +3197,20 @@
       <c r="H40" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" t="s">
+        <v>375</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="L40" s="11" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="365" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="365" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>408559237</v>
       </c>
@@ -3078,17 +3235,20 @@
       <c r="H41" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" t="s">
+        <v>375</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="K41" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="K41" s="11" t="s">
+      <c r="L41" s="11" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>521769837</v>
       </c>
@@ -3113,14 +3273,17 @@
       <c r="H42" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" t="s">
+        <v>376</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="K42" s="11" t="s">
+      <c r="L42" s="11" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>557866291</v>
       </c>
@@ -3145,14 +3308,17 @@
       <c r="H43" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="I43" t="s">
+        <v>373</v>
+      </c>
+      <c r="K43" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="K43" s="11" t="s">
+      <c r="L43" s="11" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="224" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="224" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>606645305</v>
       </c>
@@ -3172,19 +3338,22 @@
         <v>200</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>54</v>
+        <v>378</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="J44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" t="s">
+        <v>374</v>
+      </c>
+      <c r="K44" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="K44" s="11" t="s">
+      <c r="L44" s="11" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>396436091</v>
       </c>
@@ -3209,9 +3378,12 @@
       <c r="H45" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="K45" s="10"/>
-    </row>
-    <row r="46" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+      <c r="I45" t="s">
+        <v>373</v>
+      </c>
+      <c r="L45" s="10"/>
+    </row>
+    <row r="46" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>484509617</v>
       </c>
@@ -3233,11 +3405,14 @@
       <c r="H46" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K46" s="11" t="s">
+      <c r="I46" t="s">
+        <v>373</v>
+      </c>
+      <c r="L46" s="11" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>600462403</v>
       </c>
@@ -3259,11 +3434,14 @@
       <c r="H47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K47" s="11" t="s">
+      <c r="I47" t="s">
+        <v>373</v>
+      </c>
+      <c r="L47" s="11" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>256491986</v>
       </c>
@@ -3288,14 +3466,17 @@
       <c r="H48" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" t="s">
+        <v>373</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="K48" s="11" t="s">
+      <c r="L48" s="11" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>476548459</v>
       </c>
@@ -3315,19 +3496,22 @@
         <v>321</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>54</v>
+        <v>378</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J49" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="I49" t="s">
+        <v>374</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="K49" s="11" t="s">
+      <c r="L49" s="11" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>257587604</v>
       </c>
@@ -3349,17 +3533,20 @@
       <c r="H50" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" t="s">
+        <v>376</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="K50" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="K50" s="11" t="s">
+      <c r="L50" s="11" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="240" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="240" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>475336437</v>
       </c>
@@ -3384,14 +3571,17 @@
       <c r="H51" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I51" t="s">
+        <v>376</v>
+      </c>
+      <c r="J51" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="K51" s="11" t="s">
+      <c r="L51" s="11" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>421810788</v>
       </c>
@@ -3416,11 +3606,14 @@
       <c r="H52" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K52" s="11" t="s">
+      <c r="I52" t="s">
+        <v>373</v>
+      </c>
+      <c r="L52" s="11" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>484776892</v>
       </c>
@@ -3442,12 +3635,15 @@
       <c r="H53" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I53" t="s">
+        <v>373</v>
+      </c>
+      <c r="J53" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="K53" s="10"/>
-    </row>
-    <row r="54" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+      <c r="L53" s="10"/>
+    </row>
+    <row r="54" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>336346075</v>
       </c>
@@ -3469,12 +3665,15 @@
       <c r="H54" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="I54" t="s">
+        <v>373</v>
+      </c>
+      <c r="J54" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="K54" s="10"/>
-    </row>
-    <row r="55" spans="1:11" ht="208" x14ac:dyDescent="0.2">
+      <c r="L54" s="10"/>
+    </row>
+    <row r="55" spans="1:12" ht="208" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>479939272</v>
       </c>
@@ -3499,14 +3698,17 @@
       <c r="H55" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="I55" t="s">
+        <v>375</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="K55" s="11" t="s">
+      <c r="L55" s="11" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>542197909</v>
       </c>
@@ -3531,12 +3733,15 @@
       <c r="H56" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I56" t="s">
+        <v>373</v>
+      </c>
+      <c r="J56" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="K56" s="10"/>
-    </row>
-    <row r="57" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+      <c r="L56" s="10"/>
+    </row>
+    <row r="57" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>558683432</v>
       </c>
@@ -3561,14 +3766,17 @@
       <c r="H57" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="I57" t="s">
+        <v>375</v>
+      </c>
+      <c r="K57" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="K57" s="11" t="s">
+      <c r="L57" s="11" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>498756104</v>
       </c>
@@ -3593,17 +3801,20 @@
       <c r="H58" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="I58" t="s">
+        <v>376</v>
+      </c>
+      <c r="J58" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="K58" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K58" s="10" t="s">
+      <c r="L58" s="10" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>373616100</v>
       </c>
@@ -3625,16 +3836,19 @@
       <c r="H59" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I59" t="s">
+        <v>373</v>
+      </c>
+      <c r="J59" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="K59" s="11" t="s">
+      <c r="L59" s="11" t="s">
         <v>361</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I22" r:id="rId1" xr:uid="{C5F77BB3-70DE-E747-A517-AD17B22106E7}"/>
+    <hyperlink ref="J22" r:id="rId1" xr:uid="{C5F77BB3-70DE-E747-A517-AD17B22106E7}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{B3561AB3-3867-3D48-A339-DF71113067D0}"/>
     <hyperlink ref="E3" r:id="rId3" xr:uid="{A6601AF2-D530-7643-B961-C6A01A2ED8AC}"/>
     <hyperlink ref="E4" r:id="rId4" xr:uid="{F36CC521-0467-6846-A399-171D6A9255AB}"/>
